--- a/data/134/DEUSTATIS/old/Producer price index for industrial products - total.xlsx
+++ b/data/134/DEUSTATIS/old/Producer price index for industrial products - total.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="72">
   <si>
     <t>Producer price index for industrial products (incl. rates of
 change): Germany, months</t>
@@ -232,7 +232,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:21:17</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:17:46</t>
   </si>
 </sst>
 </file>
@@ -8822,42 +8822,42 @@
       <c r="B554" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="C554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="D554" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="E554" t="s" s="10">
-        <v>69</v>
+      <c r="C554" t="n" s="10">
+        <v>118.3</v>
+      </c>
+      <c r="D554" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="E554" t="n" s="10">
+        <v>14.2</v>
       </c>
     </row>
     <row r="555">
       <c r="B555" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="C555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="D555" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="E555" t="s" s="10">
-        <v>69</v>
+      <c r="C555" t="n" s="10">
+        <v>122.8</v>
+      </c>
+      <c r="D555" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="E555" t="n" s="10">
+        <v>18.4</v>
       </c>
     </row>
     <row r="556">
       <c r="B556" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="C556" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="D556" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="E556" t="s" s="10">
-        <v>69</v>
+      <c r="C556" t="n" s="10">
+        <v>123.8</v>
+      </c>
+      <c r="D556" t="n" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="E556" t="n" s="10">
+        <v>19.2</v>
       </c>
     </row>
     <row r="557">
@@ -8894,7 +8894,7 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup usePrinterDefaults="false"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:21:21&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:17:51&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>